--- a/tests/testthat/dyncov_LL_reference.xlsx
+++ b/tests/testthat/dyncov_LL_reference.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrik/StudentAssi/GIT/CLVTools/tests/testthat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746D957D-023E-304A-8DDE-2CEC63AE5B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628682E-C84B-3843-9486-2D61BCB1A3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="27660" windowHeight="17500" activeTab="1" xr2:uid="{8D303423-B6EF-E442-A975-6C1AD4B476F2}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{8D303423-B6EF-E442-A975-6C1AD4B476F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bi()" sheetId="1" r:id="rId1"/>
-    <sheet name="Di()" sheetId="2" r:id="rId2"/>
+    <sheet name="Walk d" sheetId="3" r:id="rId1"/>
+    <sheet name="Bi()" sheetId="1" r:id="rId2"/>
+    <sheet name="Di()" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="38">
   <si>
     <t>Customer</t>
   </si>
@@ -140,13 +141,23 @@
   <si>
     <t>k0x</t>
   </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Day of week</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -216,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -252,11 +263,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,6 +362,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,6 +402,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C86CE2-C03E-D841-8BDC-3A98E73F5EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="63500"/>
+          <a:ext cx="9220200" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1"/>
+            <a:t>Fat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t> lines mark period end (week)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>Thin lines mark days</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" baseline="0"/>
+            <a:t>x marks on which day the transaction happend</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,6 +798,1406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E216C0E4-00F7-514F-B1CA-ABBDD7295FF3}">
+  <dimension ref="A5:V54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="22" width="5.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:22" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="I5" s="34">
+        <v>2</v>
+      </c>
+      <c r="P5" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2</v>
+      </c>
+      <c r="D7" s="33">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33">
+        <v>4</v>
+      </c>
+      <c r="F7" s="33">
+        <v>5</v>
+      </c>
+      <c r="G7" s="33">
+        <v>6</v>
+      </c>
+      <c r="H7" s="33">
+        <v>7</v>
+      </c>
+      <c r="I7" s="33">
+        <v>1</v>
+      </c>
+      <c r="J7" s="33">
+        <v>2</v>
+      </c>
+      <c r="K7" s="33">
+        <v>3</v>
+      </c>
+      <c r="L7" s="33">
+        <v>4</v>
+      </c>
+      <c r="M7" s="33">
+        <v>5</v>
+      </c>
+      <c r="N7" s="33">
+        <v>6</v>
+      </c>
+      <c r="O7" s="33">
+        <v>7</v>
+      </c>
+      <c r="P7" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>2</v>
+      </c>
+      <c r="R7" s="33">
+        <v>3</v>
+      </c>
+      <c r="S7" s="33">
+        <v>4</v>
+      </c>
+      <c r="T7" s="33">
+        <v>5</v>
+      </c>
+      <c r="U7" s="33">
+        <v>6</v>
+      </c>
+      <c r="V7" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+    </row>
+    <row r="13" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="34">
+        <v>1</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34">
+        <v>2</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+    </row>
+    <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="29"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2</v>
+      </c>
+      <c r="D15" s="33">
+        <v>3</v>
+      </c>
+      <c r="E15" s="33">
+        <v>4</v>
+      </c>
+      <c r="F15" s="33">
+        <v>5</v>
+      </c>
+      <c r="G15" s="33">
+        <v>6</v>
+      </c>
+      <c r="H15" s="33">
+        <v>7</v>
+      </c>
+      <c r="I15" s="33">
+        <v>1</v>
+      </c>
+      <c r="J15" s="33">
+        <v>2</v>
+      </c>
+      <c r="K15" s="33">
+        <v>3</v>
+      </c>
+      <c r="L15" s="33">
+        <v>4</v>
+      </c>
+      <c r="M15" s="33">
+        <v>5</v>
+      </c>
+      <c r="N15" s="33">
+        <v>6</v>
+      </c>
+      <c r="O15" s="33">
+        <v>7</v>
+      </c>
+      <c r="P15" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>2</v>
+      </c>
+      <c r="R15" s="33">
+        <v>3</v>
+      </c>
+      <c r="S15" s="33">
+        <v>4</v>
+      </c>
+      <c r="T15" s="33">
+        <v>5</v>
+      </c>
+      <c r="U15" s="33">
+        <v>6</v>
+      </c>
+      <c r="V15" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="J16" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+    </row>
+    <row r="21" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="34">
+        <v>1</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34">
+        <v>2</v>
+      </c>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+    </row>
+    <row r="22" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="29"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="33">
+        <v>1</v>
+      </c>
+      <c r="C23" s="33">
+        <v>2</v>
+      </c>
+      <c r="D23" s="33">
+        <v>3</v>
+      </c>
+      <c r="E23" s="33">
+        <v>4</v>
+      </c>
+      <c r="F23" s="33">
+        <v>5</v>
+      </c>
+      <c r="G23" s="33">
+        <v>6</v>
+      </c>
+      <c r="H23" s="33">
+        <v>7</v>
+      </c>
+      <c r="I23" s="33">
+        <v>1</v>
+      </c>
+      <c r="J23" s="33">
+        <v>2</v>
+      </c>
+      <c r="K23" s="33">
+        <v>3</v>
+      </c>
+      <c r="L23" s="33">
+        <v>4</v>
+      </c>
+      <c r="M23" s="33">
+        <v>5</v>
+      </c>
+      <c r="N23" s="33">
+        <v>6</v>
+      </c>
+      <c r="O23" s="33">
+        <v>7</v>
+      </c>
+      <c r="P23" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>2</v>
+      </c>
+      <c r="R23" s="33">
+        <v>3</v>
+      </c>
+      <c r="S23" s="33">
+        <v>4</v>
+      </c>
+      <c r="T23" s="33">
+        <v>5</v>
+      </c>
+      <c r="U23" s="33">
+        <v>6</v>
+      </c>
+      <c r="V23" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+    </row>
+    <row r="28" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="34">
+        <v>1</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34">
+        <v>2</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+    </row>
+    <row r="29" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="29"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="33">
+        <v>1</v>
+      </c>
+      <c r="C30" s="33">
+        <v>2</v>
+      </c>
+      <c r="D30" s="33">
+        <v>3</v>
+      </c>
+      <c r="E30" s="33">
+        <v>4</v>
+      </c>
+      <c r="F30" s="33">
+        <v>5</v>
+      </c>
+      <c r="G30" s="33">
+        <v>6</v>
+      </c>
+      <c r="H30" s="33">
+        <v>7</v>
+      </c>
+      <c r="I30" s="33">
+        <v>1</v>
+      </c>
+      <c r="J30" s="33">
+        <v>2</v>
+      </c>
+      <c r="K30" s="33">
+        <v>3</v>
+      </c>
+      <c r="L30" s="33">
+        <v>4</v>
+      </c>
+      <c r="M30" s="33">
+        <v>5</v>
+      </c>
+      <c r="N30" s="33">
+        <v>6</v>
+      </c>
+      <c r="O30" s="33">
+        <v>7</v>
+      </c>
+      <c r="P30" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="33">
+        <v>2</v>
+      </c>
+      <c r="R30" s="33">
+        <v>3</v>
+      </c>
+      <c r="S30" s="33">
+        <v>4</v>
+      </c>
+      <c r="T30" s="33">
+        <v>5</v>
+      </c>
+      <c r="U30" s="33">
+        <v>6</v>
+      </c>
+      <c r="V30" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="L31" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+    </row>
+    <row r="35" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="34">
+        <v>1</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34">
+        <v>2</v>
+      </c>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="34"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
+    </row>
+    <row r="36" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="29"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="33">
+        <v>1</v>
+      </c>
+      <c r="C37" s="33">
+        <v>2</v>
+      </c>
+      <c r="D37" s="33">
+        <v>3</v>
+      </c>
+      <c r="E37" s="33">
+        <v>4</v>
+      </c>
+      <c r="F37" s="33">
+        <v>5</v>
+      </c>
+      <c r="G37" s="33">
+        <v>6</v>
+      </c>
+      <c r="H37" s="33">
+        <v>7</v>
+      </c>
+      <c r="I37" s="33">
+        <v>1</v>
+      </c>
+      <c r="J37" s="33">
+        <v>2</v>
+      </c>
+      <c r="K37" s="33">
+        <v>3</v>
+      </c>
+      <c r="L37" s="33">
+        <v>4</v>
+      </c>
+      <c r="M37" s="33">
+        <v>5</v>
+      </c>
+      <c r="N37" s="33">
+        <v>6</v>
+      </c>
+      <c r="O37" s="33">
+        <v>7</v>
+      </c>
+      <c r="P37" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="33">
+        <v>2</v>
+      </c>
+      <c r="R37" s="33">
+        <v>3</v>
+      </c>
+      <c r="S37" s="33">
+        <v>4</v>
+      </c>
+      <c r="T37" s="33">
+        <v>5</v>
+      </c>
+      <c r="U37" s="33">
+        <v>6</v>
+      </c>
+      <c r="V37" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="M38" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="30"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+    </row>
+    <row r="42" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="34">
+        <v>1</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34">
+        <v>2</v>
+      </c>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+    </row>
+    <row r="43" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="29"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="33">
+        <v>1</v>
+      </c>
+      <c r="C44" s="33">
+        <v>2</v>
+      </c>
+      <c r="D44" s="33">
+        <v>3</v>
+      </c>
+      <c r="E44" s="33">
+        <v>4</v>
+      </c>
+      <c r="F44" s="33">
+        <v>5</v>
+      </c>
+      <c r="G44" s="33">
+        <v>6</v>
+      </c>
+      <c r="H44" s="33">
+        <v>7</v>
+      </c>
+      <c r="I44" s="33">
+        <v>1</v>
+      </c>
+      <c r="J44" s="33">
+        <v>2</v>
+      </c>
+      <c r="K44" s="33">
+        <v>3</v>
+      </c>
+      <c r="L44" s="33">
+        <v>4</v>
+      </c>
+      <c r="M44" s="33">
+        <v>5</v>
+      </c>
+      <c r="N44" s="33">
+        <v>6</v>
+      </c>
+      <c r="O44" s="33">
+        <v>7</v>
+      </c>
+      <c r="P44" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="33">
+        <v>2</v>
+      </c>
+      <c r="R44" s="33">
+        <v>3</v>
+      </c>
+      <c r="S44" s="33">
+        <v>4</v>
+      </c>
+      <c r="T44" s="33">
+        <v>5</v>
+      </c>
+      <c r="U44" s="33">
+        <v>6</v>
+      </c>
+      <c r="V44" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="N45" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+    </row>
+    <row r="49" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34">
+        <v>2</v>
+      </c>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+    </row>
+    <row r="50" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="29"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="33">
+        <v>1</v>
+      </c>
+      <c r="C51" s="33">
+        <v>2</v>
+      </c>
+      <c r="D51" s="33">
+        <v>3</v>
+      </c>
+      <c r="E51" s="33">
+        <v>4</v>
+      </c>
+      <c r="F51" s="33">
+        <v>5</v>
+      </c>
+      <c r="G51" s="33">
+        <v>6</v>
+      </c>
+      <c r="H51" s="33">
+        <v>7</v>
+      </c>
+      <c r="I51" s="33">
+        <v>1</v>
+      </c>
+      <c r="J51" s="33">
+        <v>2</v>
+      </c>
+      <c r="K51" s="33">
+        <v>3</v>
+      </c>
+      <c r="L51" s="33">
+        <v>4</v>
+      </c>
+      <c r="M51" s="33">
+        <v>5</v>
+      </c>
+      <c r="N51" s="33">
+        <v>6</v>
+      </c>
+      <c r="O51" s="33">
+        <v>7</v>
+      </c>
+      <c r="P51" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="33">
+        <v>2</v>
+      </c>
+      <c r="R51" s="33">
+        <v>3</v>
+      </c>
+      <c r="S51" s="33">
+        <v>4</v>
+      </c>
+      <c r="T51" s="33">
+        <v>5</v>
+      </c>
+      <c r="U51" s="33">
+        <v>6</v>
+      </c>
+      <c r="V51" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="O52" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E4EC07-04B6-6444-8536-FEA202C2B431}">
   <dimension ref="A1:I49"/>
   <sheetViews>
@@ -1323,11 +2898,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A71214-829E-FF44-9512-E1378E1CABFD}">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>

--- a/tests/testthat/dyncov_LL_reference.xlsx
+++ b/tests/testthat/dyncov_LL_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrik/StudentAssi/GIT/CLVTools/tests/testthat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628682E-C84B-3843-9486-2D61BCB1A3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663B6874-35B3-455D-9784-321C1DB5CF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{8D303423-B6EF-E442-A975-6C1AD4B476F2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{8D303423-B6EF-E442-A975-6C1AD4B476F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Walk d" sheetId="3" r:id="rId1"/>
@@ -801,16 +801,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E216C0E4-00F7-514F-B1CA-ABBDD7295FF3}">
   <dimension ref="A5:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="22" width="5.83203125" customWidth="1"/>
+    <col min="2" max="22" width="5.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" s="34" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="34" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="34" t="s">
         <v>36</v>
       </c>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="27"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -847,7 +847,7 @@
       <c r="U6" s="28"/>
       <c r="V6" s="29"/>
     </row>
-    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A7" s="34" t="s">
         <v>37</v>
       </c>
@@ -915,7 +915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -943,11 +943,13 @@
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="35">
+        <v>6</v>
+      </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -968,11 +970,13 @@
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="35">
+        <v>6</v>
+      </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -993,7 +997,7 @@
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
     </row>
-    <row r="13" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="34" t="s">
         <v>36</v>
       </c>
@@ -1025,7 +1029,7 @@
       <c r="U13" s="34"/>
       <c r="V13" s="34"/>
     </row>
-    <row r="14" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -1048,7 +1052,7 @@
       <c r="U14" s="28"/>
       <c r="V14" s="29"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A15" s="34" t="s">
         <v>37</v>
       </c>
@@ -1116,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1143,11 +1147,13 @@
       <c r="U16" s="30"/>
       <c r="V16" s="30"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="35">
+        <v>5</v>
+      </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -1168,11 +1174,13 @@
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="35">
+        <v>5</v>
+      </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -1193,7 +1201,7 @@
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
     </row>
-    <row r="21" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="34" t="s">
         <v>36</v>
       </c>
@@ -1225,7 +1233,7 @@
       <c r="U21" s="34"/>
       <c r="V21" s="34"/>
     </row>
-    <row r="22" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="27"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -1248,7 +1256,7 @@
       <c r="U22" s="28"/>
       <c r="V22" s="29"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A23" s="34" t="s">
         <v>37</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1343,11 +1351,13 @@
       <c r="U24" s="30"/>
       <c r="V24" s="30"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="35">
+        <v>4</v>
+      </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -1368,11 +1378,13 @@
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="35">
+        <v>4</v>
+      </c>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -1393,7 +1405,7 @@
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
     </row>
-    <row r="28" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="34" t="s">
         <v>36</v>
       </c>
@@ -1425,7 +1437,7 @@
       <c r="U28" s="34"/>
       <c r="V28" s="34"/>
     </row>
-    <row r="29" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="27"/>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -1448,7 +1460,7 @@
       <c r="U29" s="28"/>
       <c r="V29" s="29"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A30" s="34" t="s">
         <v>37</v>
       </c>
@@ -1516,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1542,11 +1554,13 @@
       <c r="U31" s="30"/>
       <c r="V31" s="30"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="35"/>
+      <c r="B32" s="35">
+        <v>3</v>
+      </c>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -1567,11 +1581,13 @@
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="35">
+        <v>3</v>
+      </c>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -1592,7 +1608,7 @@
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
     </row>
-    <row r="35" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="34" t="s">
         <v>36</v>
       </c>
@@ -1624,7 +1640,7 @@
       <c r="U35" s="34"/>
       <c r="V35" s="34"/>
     </row>
-    <row r="36" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="27"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -1647,7 +1663,7 @@
       <c r="U36" s="28"/>
       <c r="V36" s="29"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A37" s="34" t="s">
         <v>37</v>
       </c>
@@ -1715,7 +1731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1741,11 +1757,13 @@
       <c r="U38" s="30"/>
       <c r="V38" s="30"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="35">
+        <v>2</v>
+      </c>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -1766,11 +1784,13 @@
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="35"/>
+      <c r="B40" s="35">
+        <v>2</v>
+      </c>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -1791,7 +1811,7 @@
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
     </row>
-    <row r="42" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="34" t="s">
         <v>36</v>
       </c>
@@ -1823,7 +1843,7 @@
       <c r="U42" s="34"/>
       <c r="V42" s="34"/>
     </row>
-    <row r="43" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="27"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
@@ -1846,7 +1866,7 @@
       <c r="U43" s="28"/>
       <c r="V43" s="29"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A44" s="34" t="s">
         <v>37</v>
       </c>
@@ -1914,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -1940,11 +1960,13 @@
       <c r="U45" s="30"/>
       <c r="V45" s="30"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="35"/>
+      <c r="B46" s="35">
+        <v>1</v>
+      </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -1965,11 +1987,13 @@
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="35">
+        <v>1</v>
+      </c>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -1990,7 +2014,7 @@
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
     </row>
-    <row r="49" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="34" t="s">
         <v>36</v>
       </c>
@@ -2022,7 +2046,7 @@
       <c r="U49" s="34"/>
       <c r="V49" s="34"/>
     </row>
-    <row r="50" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -2045,7 +2069,7 @@
       <c r="U50" s="28"/>
       <c r="V50" s="29"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A51" s="34" t="s">
         <v>37</v>
       </c>
@@ -2113,7 +2137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -2139,11 +2163,13 @@
       <c r="U52" s="30"/>
       <c r="V52" s="30"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="35"/>
+      <c r="B53" s="35">
+        <v>0</v>
+      </c>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -2165,11 +2191,13 @@
       <c r="U53" s="35"/>
       <c r="V53" s="35"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="35"/>
+      <c r="B54" s="35">
+        <v>0</v>
+      </c>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -2202,18 +2230,18 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8125" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2264,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>4</v>
@@ -2257,7 +2285,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2268,7 +2296,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -2281,7 +2309,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" s="20" t="s">
         <v>22</v>
       </c>
@@ -2294,7 +2322,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2305,7 +2333,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -2317,7 +2345,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>0.123</v>
@@ -2340,7 +2368,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
         <v>1</v>
@@ -2355,7 +2383,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -2370,7 +2398,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2388,7 +2416,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2406,7 +2434,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2424,7 +2452,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2442,7 +2470,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2460,7 +2488,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2472,13 +2500,13 @@
         <v>-25.388549999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -2490,7 +2518,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>0.123</v>
@@ -2509,7 +2537,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" s="1"/>
       <c r="B20" s="8" t="s">
         <v>1</v>
@@ -2524,7 +2552,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -2539,7 +2567,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2557,7 +2585,7 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2575,7 +2603,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +2621,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -2611,7 +2639,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
@@ -2622,7 +2650,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2662,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>0.123</v>
@@ -2653,7 +2681,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="8" t="s">
         <v>1</v>
@@ -2668,7 +2696,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>9</v>
@@ -2683,7 +2711,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -2696,7 +2724,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2709,7 +2737,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -2722,7 +2750,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
@@ -2733,7 +2761,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
@@ -2745,7 +2773,7 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
         <v>0.123</v>
@@ -2760,7 +2788,7 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
       <c r="B37" s="8" t="s">
         <v>1</v>
@@ -2775,7 +2803,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>9</v>
@@ -2790,7 +2818,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2806,7 +2834,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2822,7 +2850,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
@@ -2833,7 +2861,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B42" s="4" t="s">
         <v>15</v>
       </c>
@@ -2844,7 +2872,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
         <v>0.123</v>
@@ -2852,7 +2880,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="B44" s="8" t="s">
         <v>16</v>
@@ -2860,7 +2888,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>9</v>
@@ -2870,7 +2898,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -2881,13 +2909,13 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="23" t="s">
         <v>28</v>
       </c>
@@ -2906,15 +2934,15 @@
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="8" width="7.6640625" customWidth="1"/>
-    <col min="11" max="13" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1875" customWidth="1"/>
+    <col min="4" max="8" width="7.6875" customWidth="1"/>
+    <col min="11" max="13" width="5.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2931,7 +2959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>4</v>
@@ -2946,35 +2974,35 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
@@ -2995,7 +3023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
@@ -3009,7 +3037,7 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="18" t="s">
@@ -3021,7 +3049,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -3037,7 +3065,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3061,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B15" s="17" t="s">
         <v>18</v>
       </c>
@@ -3071,7 +3099,7 @@
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
@@ -3083,7 +3111,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="18" t="s">
@@ -3093,7 +3121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -3105,7 +3133,7 @@
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3129,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3154,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B22" s="17" t="s">
         <v>18</v>
       </c>
@@ -3165,7 +3193,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
@@ -3180,7 +3208,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="18" t="s">
@@ -3191,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>9</v>
       </c>
@@ -3204,7 +3232,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3228,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -3253,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -3278,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B30" s="17" t="s">
         <v>18</v>
       </c>
@@ -3290,7 +3318,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B31" s="15" t="s">
         <v>17</v>
       </c>
@@ -3308,7 +3336,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="18" t="s">
@@ -3320,7 +3348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B33" t="s">
         <v>9</v>
       </c>
@@ -3334,7 +3362,7 @@
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3358,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -3383,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3408,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3433,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B40" s="17" t="s">
         <v>18</v>
       </c>
@@ -3443,7 +3471,7 @@
       </c>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B41" s="12">
         <v>1.9870000000000001</v>
       </c>
@@ -3453,7 +3481,7 @@
       </c>
       <c r="E41" s="18"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B42" s="21">
         <v>0</v>
       </c>
@@ -3463,7 +3491,7 @@
       </c>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B43" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3503,7 @@
       </c>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3503,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B46" s="17" t="s">
         <v>18</v>
       </c>
@@ -3512,7 +3540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B47" s="12">
         <v>1.9870000000000001</v>
       </c>
@@ -3524,7 +3552,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B48" s="21">
         <v>0</v>
       </c>
@@ -3536,7 +3564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -3547,7 +3575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3572,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -3597,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B53" s="17" t="s">
         <v>18</v>
       </c>
@@ -3606,7 +3634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B54" s="12">
         <v>1.9870000000000001</v>
       </c>
@@ -3621,7 +3649,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B55" s="21">
         <v>0</v>
       </c>
@@ -3634,7 +3662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B56" t="s">
         <v>9</v>
       </c>
@@ -3645,7 +3673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3673,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -3698,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3723,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B61" s="17" t="s">
         <v>18</v>
       </c>
@@ -3732,7 +3760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B62" s="12">
         <v>1.9870000000000001</v>
       </c>
@@ -3750,7 +3778,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B63" s="21">
         <v>0</v>
       </c>
@@ -3764,7 +3792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B64" t="s">
         <v>9</v>
       </c>
@@ -3775,7 +3803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3803,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3828,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -3853,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -3878,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B70" s="17" t="s">
         <v>18</v>
       </c>
@@ -3887,7 +3915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B71" s="12">
         <v>1.9870000000000001</v>
       </c>
@@ -3900,7 +3928,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B72" s="21">
         <v>0</v>
       </c>
@@ -3911,7 +3939,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B73" t="s">
         <v>9</v>
       </c>
@@ -3922,7 +3950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3947,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B76" s="17" t="s">
         <v>18</v>
       </c>
@@ -3956,7 +3984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B77" s="12">
         <v>1.9870000000000001</v>
       </c>
@@ -3971,7 +3999,7 @@
       </c>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B78" s="21">
         <v>0</v>
       </c>
@@ -3984,7 +4012,7 @@
       </c>
       <c r="G78" s="18"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B79" t="s">
         <v>9</v>
       </c>
@@ -3995,7 +4023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -4020,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -4045,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B83" s="17" t="s">
         <v>18</v>
       </c>
@@ -4054,7 +4082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B84" s="12">
         <v>1.9870000000000001</v>
       </c>
@@ -4071,7 +4099,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B85" s="21">
         <v>0</v>
       </c>
@@ -4084,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B86" t="s">
         <v>9</v>
       </c>
@@ -4095,7 +4123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -4123,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -4148,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -4173,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B91" s="17" t="s">
         <v>18</v>
       </c>
@@ -4182,7 +4210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B92" s="12">
         <v>1.9870000000000001</v>
       </c>
@@ -4202,7 +4230,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B93" s="21">
         <v>0</v>
       </c>
@@ -4216,7 +4244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B94" t="s">
         <v>9</v>
       </c>
@@ -4227,7 +4255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -4255,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -4280,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -4305,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>12</v>
       </c>
